--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>175.85892677905707</v>
+        <v>175.85892683686862</v>
       </c>
       <c r="C2">
-        <v>179.68850596787721</v>
+        <v>179.6885060053896</v>
       </c>
       <c r="D2">
-        <v>171.41078778070681</v>
+        <v>171.41078783610178</v>
       </c>
       <c r="E2">
-        <v>215.5932936311213</v>
+        <v>215.59329367874284</v>
       </c>
       <c r="F2">
-        <v>201.92039737980176</v>
+        <v>201.92039739472759</v>
       </c>
       <c r="G2">
-        <v>186.27042337709676</v>
+        <v>186.27042342257764</v>
       </c>
       <c r="H2">
-        <v>182.89587868292912</v>
+        <v>182.89587872486288</v>
       </c>
       <c r="I2">
-        <v>184.77708748013299</v>
+        <v>184.77708752271084</v>
       </c>
       <c r="J2">
-        <v>168.48099329229046</v>
+        <v>168.48099333905569</v>
       </c>
       <c r="K2">
-        <v>169.37471801446321</v>
+        <v>169.37471805942775</v>
       </c>
       <c r="L2">
-        <v>189.22040937187273</v>
+        <v>189.22040941338716</v>
       </c>
       <c r="N2">
-        <v>235.01390872256454</v>
+        <v>235.01390878421498</v>
       </c>
       <c r="O2">
-        <v>172.57869454613967</v>
+        <v>172.57869458606558</v>
       </c>
       <c r="P2">
-        <v>207.47126106197027</v>
+        <v>207.47126112249737</v>
       </c>
       <c r="Q2">
-        <v>190.48472858307821</v>
+        <v>190.48472863235102</v>
       </c>
       <c r="S2">
-        <v>197.9181700714999</v>
+        <v>197.91817008896922</v>
       </c>
       <c r="V2">
-        <v>199.47983911657866</v>
+        <v>199.47983916853022</v>
       </c>
       <c r="W2">
-        <v>224.31050424330499</v>
+        <v>224.31050428485716</v>
       </c>
       <c r="X2">
-        <v>158.31040772564833</v>
+        <v>158.31040776285371</v>
       </c>
       <c r="AA2">
-        <v>170.15180445146038</v>
+        <v>170.15180449484399</v>
       </c>
       <c r="AB2">
-        <v>170.27645402135184</v>
+        <v>170.27645405398283</v>
       </c>
       <c r="AC2">
-        <v>152.50649969660535</v>
+        <v>152.50649974004298</v>
       </c>
       <c r="AD2">
-        <v>190.36942925521345</v>
+        <v>190.36942932713225</v>
       </c>
       <c r="AE2">
-        <v>172.54293454842485</v>
+        <v>172.54293455457929</v>
       </c>
       <c r="AF2">
-        <v>176.94175967081344</v>
+        <v>176.94175969055092</v>
       </c>
       <c r="AG2">
-        <v>188.15546878298588</v>
+        <v>188.15546883938444</v>
       </c>
       <c r="AH2">
-        <v>181.53134776773084</v>
+        <v>181.53134781694413</v>
       </c>
       <c r="AI2">
-        <v>189.16158455614075</v>
+        <v>189.16158458512149</v>
       </c>
       <c r="AJ2">
-        <v>179.38658985089833</v>
+        <v>179.38658989281166</v>
       </c>
       <c r="AK2">
-        <v>186.19596438186258</v>
+        <v>186.19596441965251</v>
       </c>
       <c r="AL2">
-        <v>173.70884423807198</v>
+        <v>173.70884430344796</v>
       </c>
       <c r="AM2">
-        <v>235.24839497790089</v>
+        <v>235.24839503447086</v>
       </c>
       <c r="AN2">
-        <v>174.72133571674175</v>
+        <v>174.72133577521726</v>
       </c>
       <c r="AO2">
-        <v>196.1107867629004</v>
+        <v>196.11078682142184</v>
       </c>
       <c r="AQ2">
-        <v>222.72807570096185</v>
+        <v>222.72807574067539</v>
       </c>
       <c r="AR2">
-        <v>192.7818607545334</v>
+        <v>192.78186075750418</v>
       </c>
       <c r="AS2">
-        <v>205.06152175884893</v>
+        <v>205.06152179492179</v>
       </c>
       <c r="AU2">
-        <v>202.72275753250699</v>
+        <v>202.72275756762443</v>
       </c>
       <c r="AV2">
-        <v>220.38705544880395</v>
+        <v>220.38705552029325</v>
       </c>
       <c r="AW2">
-        <v>155.59417583880304</v>
+        <v>155.59417588444722</v>
       </c>
       <c r="AX2">
-        <v>187.87623633769843</v>
+        <v>187.87623638106334</v>
       </c>
       <c r="AY2">
-        <v>172.97857880160419</v>
+        <v>172.97857885595695</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>171.3900955234393</v>
+        <v>171.3900955728208</v>
       </c>
       <c r="C3">
-        <v>167.91306915322957</v>
+        <v>167.91306918757599</v>
       </c>
       <c r="E3">
-        <v>212.88692402274225</v>
+        <v>212.88692403260694</v>
       </c>
       <c r="F3">
-        <v>186.42605439662847</v>
+        <v>186.42605443167034</v>
       </c>
       <c r="G3">
-        <v>178.453022617155</v>
+        <v>178.45302264413314</v>
       </c>
       <c r="H3">
-        <v>184.24335809897227</v>
+        <v>184.24335815155916</v>
       </c>
       <c r="J3">
-        <v>170.35537797093488</v>
+        <v>170.35537801585647</v>
       </c>
       <c r="K3">
-        <v>183.38445565853115</v>
+        <v>183.38445570671789</v>
       </c>
       <c r="L3">
-        <v>180.72801926022814</v>
+        <v>180.72801929051013</v>
       </c>
       <c r="M3">
-        <v>182.91251470790175</v>
+        <v>182.91267397998266</v>
       </c>
       <c r="N3">
-        <v>216.44996457938342</v>
+        <v>216.4499646249308</v>
       </c>
       <c r="P3">
-        <v>181.27782851422407</v>
+        <v>181.27782855851768</v>
       </c>
       <c r="Q3">
-        <v>188.12042709056689</v>
+        <v>188.12042714437146</v>
       </c>
       <c r="R3">
-        <v>226.87166532880906</v>
+        <v>226.87166538971888</v>
       </c>
       <c r="W3">
-        <v>192.14594663865037</v>
+        <v>192.14594671019768</v>
       </c>
       <c r="AA3">
-        <v>161.44095300606818</v>
+        <v>161.44095308144665</v>
       </c>
       <c r="AB3">
-        <v>173.50578939202333</v>
+        <v>173.50578941909325</v>
       </c>
       <c r="AC3">
-        <v>140.47084560009287</v>
+        <v>140.47084564663035</v>
       </c>
       <c r="AD3">
-        <v>216.44812378274526</v>
+        <v>216.44812382877791</v>
       </c>
       <c r="AE3">
-        <v>176.22229058424693</v>
+        <v>176.22229060142763</v>
       </c>
       <c r="AF3">
-        <v>175.17092374234309</v>
+        <v>175.17092375329338</v>
       </c>
       <c r="AG3">
-        <v>179.52494450469874</v>
+        <v>179.5249445477285</v>
       </c>
       <c r="AH3">
-        <v>181.0761648864173</v>
+        <v>181.07616491151231</v>
       </c>
       <c r="AI3">
-        <v>163.26724610749147</v>
+        <v>163.26724615496181</v>
       </c>
       <c r="AJ3">
-        <v>177.66667662432727</v>
+        <v>177.66667667765185</v>
       </c>
       <c r="AK3">
-        <v>182.04156823973247</v>
+        <v>182.0415682801225</v>
       </c>
       <c r="AL3">
-        <v>173.9656113698673</v>
+        <v>173.96561141643312</v>
       </c>
       <c r="AM3">
-        <v>210.74619952834445</v>
+        <v>210.74619960290974</v>
       </c>
       <c r="AN3">
-        <v>179.08676573009373</v>
+        <v>179.08676578159518</v>
       </c>
       <c r="AO3">
-        <v>228.25388346811184</v>
+        <v>228.25388352373398</v>
       </c>
       <c r="AP3">
-        <v>188.41197627637376</v>
+        <v>188.41197631964147</v>
       </c>
       <c r="AQ3">
-        <v>218.27162538813928</v>
+        <v>218.27162543545592</v>
       </c>
       <c r="AS3">
-        <v>221.56981053974368</v>
+        <v>221.56981058126854</v>
       </c>
       <c r="AT3">
-        <v>166.17964352970378</v>
+        <v>166.17964359295016</v>
       </c>
       <c r="AU3">
-        <v>216.87042135647403</v>
+        <v>216.87042141189909</v>
       </c>
       <c r="AV3">
-        <v>194.14633547396048</v>
+        <v>194.14633556811316</v>
       </c>
       <c r="AW3">
-        <v>158.63814264834826</v>
+        <v>158.63814269652303</v>
       </c>
       <c r="AX3">
-        <v>152.98605995496246</v>
+        <v>152.98605998629057</v>
       </c>
       <c r="AY3">
-        <v>171.30242546354555</v>
+        <v>171.30242549451026</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>175.85892683686862</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>179.6885060053896</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>171.41078783610178</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>215.59329367874284</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>201.92039739472759</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>186.27042342257764</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>182.89587872486288</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>184.77708752271084</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>168.48099333905569</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>169.37471805942775</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>189.22040941338716</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>235.01390878421498</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>172.57869458606558</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>207.47126112249737</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>190.48472863235102</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>197.91817008896922</v>
@@ -570,52 +465,55 @@
         <v>158.31040776285371</v>
       </c>
       <c r="AA2">
-        <v>170.15180449484399</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>170.27645405398283</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>152.50649974004298</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>190.36942932713225</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>172.54293455457929</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>176.94175969055092</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>188.15546883938444</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>181.53134781694413</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>189.16158458512149</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>179.38658989281166</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>186.19596441965251</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>173.70884430344796</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>235.24839503447086</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>174.72133577521726</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>196.11078682142184</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>222.72807574067539</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>192.78186075750418</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>171.3900955728208</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>167.91306918757599</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>212.88692403260694</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>186.42605443167034</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>178.45302264413314</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>184.24335815155916</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>170.35537801585647</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>183.38445570671789</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>180.72801929051013</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>182.91267397998266</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>216.4499646249308</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>181.27782855851768</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>188.12042714437146</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>226.87166538971888</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>192.14594671019768</v>
       </c>
       <c r="AA3">
-        <v>161.44095308144665</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>173.50578941909325</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>140.47084564663035</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>216.44812382877791</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>176.22229060142763</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>175.17092375329338</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>179.5249445477285</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>181.07616491151231</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>163.26724615496181</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>177.66667667765185</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>182.0415682801225</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>173.96561141643312</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>210.74619960290974</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>179.08676578159518</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>228.25388352373398</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>188.41197631964147</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>218.27162543545592</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>221.56981058126854</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>175.85892677905707</v>
-      </c>
-      <c r="C2">
-        <v>179.68850596787721</v>
+        <v>172.57869458606558</v>
       </c>
       <c r="D2">
-        <v>171.41078778070681</v>
+        <v>174.72133577521726</v>
       </c>
       <c r="E2">
-        <v>215.5932936311213</v>
+        <v>222.72807574067539</v>
       </c>
       <c r="F2">
         <v>201.92039737980176</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>171.3900955234393</v>
-      </c>
       <c r="C3">
-        <v>167.91306915322957</v>
+        <v>226.87166538971888</v>
+      </c>
+      <c r="D3">
+        <v>179.08676578159518</v>
       </c>
       <c r="E3">
-        <v>212.88692402274225</v>
+        <v>218.10031875252301</v>
       </c>
       <c r="F3">
         <v>186.42605439662847</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>175.85892677905707</v>
+        <v>235.01390878421498</v>
       </c>
       <c r="C2">
-        <v>179.68850596787721</v>
+        <v>172.57869458606558</v>
       </c>
       <c r="D2">
-        <v>171.41078778070681</v>
+        <v>235.24839503447086</v>
       </c>
       <c r="E2">
-        <v>215.5932936311213</v>
+        <v>174.72133577521726</v>
       </c>
       <c r="F2">
         <v>201.92039737980176</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>171.3900955234393</v>
-      </c>
-      <c r="C3">
-        <v>167.91306915322957</v>
+        <v>216.4499646249308</v>
+      </c>
+      <c r="D3">
+        <v>210.74619960290974</v>
       </c>
       <c r="E3">
-        <v>212.88692402274225</v>
+        <v>179.08676578159518</v>
       </c>
       <c r="F3">
         <v>186.42605439662847</v>

--- a/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMtend_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>175.85892683686862</v>
+      </c>
+      <c r="C2">
+        <v>179.6885060053896</v>
+      </c>
+      <c r="D2">
+        <v>171.41078783610178</v>
+      </c>
+      <c r="E2">
+        <v>215.59329367874284</v>
+      </c>
+      <c r="F2">
+        <v>201.92039739472759</v>
+      </c>
+      <c r="G2">
+        <v>186.27042342257764</v>
+      </c>
+      <c r="H2">
+        <v>182.89587872486288</v>
+      </c>
+      <c r="I2">
+        <v>184.77708752271084</v>
+      </c>
+      <c r="J2">
+        <v>168.48099333905569</v>
+      </c>
+      <c r="K2">
+        <v>169.37471805942775</v>
+      </c>
+      <c r="L2">
+        <v>189.22040941338716</v>
+      </c>
+      <c r="N2">
         <v>235.01390878421498</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>172.57869458606558</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>207.47126112249737</v>
+      </c>
+      <c r="Q2">
+        <v>190.48472863235102</v>
+      </c>
+      <c r="S2">
+        <v>197.91817008896922</v>
+      </c>
+      <c r="V2">
+        <v>199.47983916853022</v>
+      </c>
+      <c r="W2">
+        <v>224.31050428485716</v>
+      </c>
+      <c r="X2">
+        <v>158.31040776285371</v>
+      </c>
+      <c r="AA2">
+        <v>170.15180449484399</v>
+      </c>
+      <c r="AB2">
+        <v>170.27645405398283</v>
+      </c>
+      <c r="AC2">
+        <v>152.50649974004298</v>
+      </c>
+      <c r="AD2">
+        <v>190.36942932713225</v>
+      </c>
+      <c r="AE2">
+        <v>172.54293455457929</v>
+      </c>
+      <c r="AF2">
+        <v>176.94175969055092</v>
+      </c>
+      <c r="AG2">
+        <v>188.15546883938444</v>
+      </c>
+      <c r="AH2">
+        <v>181.53134781694413</v>
+      </c>
+      <c r="AI2">
+        <v>189.16158458512149</v>
+      </c>
+      <c r="AJ2">
+        <v>179.38658989281166</v>
+      </c>
+      <c r="AK2">
+        <v>186.19596441965251</v>
+      </c>
+      <c r="AL2">
+        <v>173.70884430344796</v>
+      </c>
+      <c r="AM2">
         <v>235.24839503447086</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>174.72133577521726</v>
       </c>
-      <c r="F2">
-        <v>201.92039737980176</v>
-      </c>
-      <c r="G2">
-        <v>186.27042337709676</v>
-      </c>
-      <c r="H2">
-        <v>182.89587868292912</v>
-      </c>
-      <c r="I2">
-        <v>184.77708748013299</v>
-      </c>
-      <c r="J2">
-        <v>168.48099329229046</v>
-      </c>
-      <c r="K2">
-        <v>169.37471801446321</v>
-      </c>
-      <c r="L2">
-        <v>189.22040937187273</v>
-      </c>
-      <c r="N2">
-        <v>235.01390872256454</v>
-      </c>
-      <c r="O2">
-        <v>172.57869454613967</v>
-      </c>
-      <c r="P2">
-        <v>207.47126106197027</v>
-      </c>
-      <c r="Q2">
-        <v>190.48472858307821</v>
-      </c>
-      <c r="S2">
-        <v>197.9181700714999</v>
-      </c>
-      <c r="V2">
-        <v>199.47983911657866</v>
-      </c>
-      <c r="W2">
-        <v>224.31050424330499</v>
-      </c>
-      <c r="X2">
-        <v>158.31040772564833</v>
-      </c>
-      <c r="AA2">
-        <v>170.15180445146038</v>
-      </c>
-      <c r="AB2">
-        <v>170.27645402135184</v>
-      </c>
-      <c r="AC2">
-        <v>152.50649969660535</v>
-      </c>
-      <c r="AD2">
-        <v>190.36942925521345</v>
-      </c>
-      <c r="AE2">
-        <v>172.54293454842485</v>
-      </c>
-      <c r="AF2">
-        <v>176.94175967081344</v>
-      </c>
-      <c r="AG2">
-        <v>188.15546878298588</v>
-      </c>
-      <c r="AH2">
-        <v>181.53134776773084</v>
-      </c>
-      <c r="AI2">
-        <v>189.16158455614075</v>
-      </c>
-      <c r="AJ2">
-        <v>179.38658985089833</v>
-      </c>
-      <c r="AK2">
-        <v>186.19596438186258</v>
-      </c>
-      <c r="AL2">
-        <v>173.70884423807198</v>
-      </c>
-      <c r="AM2">
-        <v>235.24839497790089</v>
-      </c>
-      <c r="AN2">
-        <v>174.72133571674175</v>
-      </c>
       <c r="AO2">
-        <v>196.1107867629004</v>
+        <v>196.11078682142184</v>
       </c>
       <c r="AQ2">
-        <v>222.72807570096185</v>
+        <v>222.72807574067539</v>
       </c>
       <c r="AR2">
-        <v>192.7818607545334</v>
+        <v>192.78186075750418</v>
       </c>
       <c r="AS2">
-        <v>205.06152175884893</v>
+        <v>205.06152179492179</v>
       </c>
       <c r="AU2">
-        <v>202.72275753250699</v>
+        <v>202.72275756762443</v>
       </c>
       <c r="AV2">
-        <v>220.38705544880395</v>
+        <v>220.38705552029325</v>
       </c>
       <c r="AW2">
-        <v>155.59417583880304</v>
+        <v>155.59417588444722</v>
       </c>
       <c r="AX2">
-        <v>187.87623633769843</v>
+        <v>187.87623638106334</v>
       </c>
       <c r="AY2">
-        <v>172.97857880160419</v>
+        <v>172.97857885595695</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>171.3900955728208</v>
+      </c>
+      <c r="C3">
+        <v>167.91306918757599</v>
+      </c>
+      <c r="E3">
+        <v>212.88692403260694</v>
+      </c>
+      <c r="F3">
+        <v>186.42605443167034</v>
+      </c>
+      <c r="G3">
+        <v>178.45302264413314</v>
+      </c>
+      <c r="H3">
+        <v>184.24335815155916</v>
+      </c>
+      <c r="J3">
+        <v>170.35537801585647</v>
+      </c>
+      <c r="K3">
+        <v>183.38445570671789</v>
+      </c>
+      <c r="L3">
+        <v>180.72801929051013</v>
+      </c>
+      <c r="M3">
+        <v>182.91267397998266</v>
+      </c>
+      <c r="N3">
         <v>216.4499646249308</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>181.27782855851768</v>
+      </c>
+      <c r="Q3">
+        <v>188.12042714437146</v>
+      </c>
+      <c r="R3">
+        <v>226.87166538971888</v>
+      </c>
+      <c r="W3">
+        <v>192.43375252920134</v>
+      </c>
+      <c r="AA3">
+        <v>161.44095308144665</v>
+      </c>
+      <c r="AB3">
+        <v>173.50578941909325</v>
+      </c>
+      <c r="AC3">
+        <v>140.47084564663035</v>
+      </c>
+      <c r="AD3">
+        <v>216.44812382877791</v>
+      </c>
+      <c r="AE3">
+        <v>176.22229060142763</v>
+      </c>
+      <c r="AF3">
+        <v>175.17092375329338</v>
+      </c>
+      <c r="AG3">
+        <v>179.5249445477285</v>
+      </c>
+      <c r="AH3">
+        <v>181.239133949311</v>
+      </c>
+      <c r="AI3">
+        <v>163.26724615496181</v>
+      </c>
+      <c r="AJ3">
+        <v>177.66667667765185</v>
+      </c>
+      <c r="AK3">
+        <v>182.0415682801225</v>
+      </c>
+      <c r="AL3">
+        <v>173.96561141643312</v>
+      </c>
+      <c r="AM3">
         <v>210.74619960290974</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>179.08676578159518</v>
       </c>
-      <c r="F3">
-        <v>186.42605439662847</v>
-      </c>
-      <c r="G3">
-        <v>178.453022617155</v>
-      </c>
-      <c r="H3">
-        <v>184.24335809897227</v>
-      </c>
-      <c r="J3">
-        <v>170.35537797093488</v>
-      </c>
-      <c r="K3">
-        <v>183.38445565853115</v>
-      </c>
-      <c r="L3">
-        <v>180.72801926022814</v>
-      </c>
-      <c r="M3">
-        <v>182.91251470790175</v>
-      </c>
-      <c r="N3">
-        <v>216.44996457938342</v>
-      </c>
-      <c r="P3">
-        <v>181.27782851422407</v>
-      </c>
-      <c r="Q3">
-        <v>188.12042709056689</v>
-      </c>
-      <c r="R3">
-        <v>226.87166532880906</v>
-      </c>
-      <c r="W3">
-        <v>192.43375245755152</v>
-      </c>
-      <c r="AA3">
-        <v>161.44095300606818</v>
-      </c>
-      <c r="AB3">
-        <v>173.50578939202333</v>
-      </c>
-      <c r="AC3">
-        <v>140.47084560009287</v>
-      </c>
-      <c r="AD3">
-        <v>216.44812378274526</v>
-      </c>
-      <c r="AE3">
-        <v>176.22229058424693</v>
-      </c>
-      <c r="AF3">
-        <v>175.17092374234309</v>
-      </c>
-      <c r="AG3">
-        <v>179.52494450469874</v>
-      </c>
-      <c r="AH3">
-        <v>181.23913392924581</v>
-      </c>
-      <c r="AI3">
-        <v>163.26724610749147</v>
-      </c>
-      <c r="AJ3">
-        <v>177.66667662432727</v>
-      </c>
-      <c r="AK3">
-        <v>182.04156823973247</v>
-      </c>
-      <c r="AL3">
-        <v>173.9656113698673</v>
-      </c>
-      <c r="AM3">
-        <v>210.74619952834445</v>
-      </c>
-      <c r="AN3">
-        <v>179.08676573009373</v>
-      </c>
       <c r="AO3">
-        <v>228.25388346811184</v>
+        <v>228.25388352373398</v>
       </c>
       <c r="AP3">
-        <v>188.41197627637376</v>
+        <v>188.41197631964147</v>
       </c>
       <c r="AQ3">
-        <v>218.10031869783461</v>
+        <v>218.10031875252301</v>
       </c>
       <c r="AS3">
-        <v>221.56981053974368</v>
+        <v>221.56981058126854</v>
       </c>
       <c r="AT3">
-        <v>166.17964352970378</v>
+        <v>166.17964359295016</v>
       </c>
       <c r="AU3">
-        <v>216.87042135647403</v>
+        <v>216.87042141189909</v>
       </c>
       <c r="AV3">
-        <v>194.14633547396048</v>
+        <v>194.14633556811316</v>
       </c>
       <c r="AW3">
-        <v>158.63814264834826</v>
+        <v>158.63814269652303</v>
       </c>
       <c r="AX3">
-        <v>152.98605995496246</v>
+        <v>152.98605998629057</v>
       </c>
       <c r="AY3">
-        <v>171.30242546354555</v>
+        <v>171.30242549451026</v>
       </c>
     </row>
   </sheetData>
